--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_23_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_23_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1508542.238550462</v>
+        <v>1429680.578281112</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2696981.901292318</v>
+        <v>2696981.901292317</v>
       </c>
     </row>
     <row r="8">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,49 +1378,49 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>101.9232672218027</v>
       </c>
-      <c r="F11" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>89.77401376896377</v>
+      </c>
+      <c r="S11" t="n">
         <v>101.9232672218027</v>
-      </c>
-      <c r="G11" t="n">
-        <v>101.9232672218027</v>
-      </c>
-      <c r="H11" t="n">
-        <v>89.77401376896374</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>89.77401376896374</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,64 +1460,64 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>68.42349820141631</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>101.9232672218027</v>
       </c>
-      <c r="H12" t="n">
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>101.9232672218027</v>
-      </c>
-      <c r="I12" t="n">
-        <v>96.88303733070427</v>
-      </c>
-      <c r="J12" t="n">
-        <v>26.3907454586459</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1566,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.65773652639939</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>30.74918469704988</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.45275037124488</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>58.85967159469416</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>89.77401376896374</v>
       </c>
       <c r="C14" t="n">
         <v>101.9232672218027</v>
@@ -1615,67 +1615,67 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.77401376896374</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>101.9232672218027</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101.9232672218027</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>101.9232672218027</v>
       </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>89.77401376896374</v>
+      </c>
+      <c r="X15" t="n">
         <v>101.9232672218027</v>
-      </c>
-      <c r="W15" t="n">
-        <v>101.9232672218027</v>
-      </c>
-      <c r="X15" t="n">
-        <v>89.77401376896374</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1803,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.65773652639939</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>30.74918469704988</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.45275037124488</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>58.85967159469416</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="F17" t="n">
-        <v>97.23005474269965</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>110.3883455298589</v>
       </c>
       <c r="H17" t="n">
-        <v>110.3883455298589</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>110.3883455298589</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>97.23005474269971</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>97.23005474269965</v>
+        <v>97.23005474269971</v>
       </c>
       <c r="S18" t="n">
         <v>110.3883455298589</v>
@@ -1979,13 +1979,13 @@
         <v>110.3883455298589</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>110.3883455298589</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2013,43 +2013,43 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>58.85967159469416</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>97.23005474269974</v>
       </c>
       <c r="F20" t="n">
-        <v>110.3883455298585</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>97.23005474269925</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>110.3883455298585</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>110.3883455298585</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>97.23005474269932</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="S21" t="n">
-        <v>110.3883455298585</v>
+        <v>97.23005474269974</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>110.3883455298585</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>110.3883455298585</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>58.85967159469415</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>58.85967159469415</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.05499638472406332</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>135.7906420798609</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>119.6043975439415</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>135.7906420798609</v>
       </c>
-      <c r="H23" t="n">
+      <c r="X23" t="n">
         <v>135.7906420798609</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>119.5494011592175</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.7906420798609</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>118.2038168143979</v>
       </c>
       <c r="S24" t="n">
-        <v>1.400580729543587</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="T24" t="n">
         <v>135.7906420798609</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.400580729543615</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>135.7906420798609</v>
       </c>
       <c r="Y24" t="n">
-        <v>135.7906420798609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>58.85967159469416</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>58.85967159469416</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>119.6043975439415</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>135.7906420798609</v>
       </c>
-      <c r="C26" t="n">
+      <c r="H26" t="n">
         <v>135.7906420798609</v>
-      </c>
-      <c r="D26" t="n">
-        <v>119.6043975439415</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>135.7906420798609</v>
@@ -2636,70 +2636,70 @@
         <v>135.7906420798609</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>135.7906420798609</v>
       </c>
-      <c r="D27" t="n">
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>119.6043975439415</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>135.7906420798609</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>58.85967159469409</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>58.85967159469416</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,70 +2791,70 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
         <v>135.7906420798609</v>
       </c>
-      <c r="C29" t="n">
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>135.7906420798609</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
+        <v>135.7906420798609</v>
+      </c>
+      <c r="W29" t="n">
         <v>119.6043975439415</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>135.7906420798609</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,67 +2873,67 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
         <v>135.7906420798609</v>
       </c>
-      <c r="D30" t="n">
+      <c r="U30" t="n">
+        <v>119.6043975439415</v>
+      </c>
+      <c r="V30" t="n">
         <v>135.7906420798609</v>
       </c>
-      <c r="E30" t="n">
+      <c r="W30" t="n">
         <v>135.7906420798609</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>119.6043975439415</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>119.6043975439415</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,55 +3040,55 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>119.6043975439415</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
         <v>135.7906420798609</v>
       </c>
-      <c r="H32" t="n">
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>135.7906420798609</v>
       </c>
-      <c r="I32" t="n">
+      <c r="V32" t="n">
         <v>135.7906420798609</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3107,70 +3107,70 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>119.6043975439415</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>135.7906420798609</v>
       </c>
-      <c r="C33" t="n">
+      <c r="V33" t="n">
         <v>135.7906420798609</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>119.6043975439415</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="W33" t="n">
         <v>135.7906420798609</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>58.85967159469409</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>58.85967159469416</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>8.713999329422307</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>97.23005474269971</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>110.3883455298589</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>110.3883455298589</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>110.3883455298589</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>88.51605541327734</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>97.23005474269971</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="W36" t="n">
         <v>110.3883455298589</v>
       </c>
       <c r="X36" t="n">
-        <v>110.3883455298589</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>110.3883455298589</v>
+        <v>97.23005474269968</v>
       </c>
     </row>
     <row r="37">
@@ -3447,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>28.16757858960514</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>30.69209300508902</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>58.85967159469416</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,67 +3511,67 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>97.23005474269971</v>
+      </c>
+      <c r="T38" t="n">
         <v>110.3883455298589</v>
       </c>
-      <c r="F38" t="n">
+      <c r="U38" t="n">
         <v>110.3883455298589</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>97.23005474269971</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>110.3883455298589</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,58 +3596,58 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>97.23005474269971</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>110.3883455298589</v>
       </c>
-      <c r="H39" t="n">
+      <c r="W39" t="n">
         <v>110.3883455298589</v>
       </c>
-      <c r="I39" t="n">
-        <v>96.88303733070427</v>
-      </c>
-      <c r="J39" t="n">
-        <v>26.3907454586459</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>84.34461748320841</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>58.85967159469416</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>58.85967159469415</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,70 +3739,70 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>89.77401376896377</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>89.77401376896374</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>101.9232672218027</v>
       </c>
-      <c r="D41" t="n">
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>101.9232672218027</v>
       </c>
-      <c r="E41" t="n">
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>101.9232672218027</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,61 +3821,61 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>89.77401376896377</v>
+      </c>
+      <c r="U42" t="n">
         <v>101.9232672218027</v>
-      </c>
-      <c r="H42" t="n">
-        <v>101.9232672218027</v>
-      </c>
-      <c r="I42" t="n">
-        <v>96.88303733070427</v>
-      </c>
-      <c r="J42" t="n">
-        <v>26.3907454586459</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>68.42349820141631</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>58.85967159469416</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3936,13 +3936,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.65773652639939</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.20193506829476</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3976,73 +3976,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>101.9232672218027</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>89.77401376896377</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>101.9232672218027</v>
-      </c>
-      <c r="G44" t="n">
-        <v>89.77401376896374</v>
-      </c>
-      <c r="H44" t="n">
-        <v>101.9232672218027</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>26.3907454586459</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>101.9232672218027</v>
       </c>
       <c r="U45" t="n">
-        <v>63.38326831031785</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>89.77401376896374</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>58.85967159469416</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4173,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.65773652639939</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>30.74918469704988</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.45275037124488</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>407.6930688872108</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="C11" t="n">
-        <v>407.6930688872108</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="D11" t="n">
-        <v>407.6930688872108</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="E11" t="n">
-        <v>304.7402737136727</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="F11" t="n">
-        <v>201.7874785401346</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="G11" t="n">
-        <v>98.83468336659649</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="H11" t="n">
-        <v>8.153861377744215</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="I11" t="n">
         <v>8.153861377744215</v>
@@ -5047,16 +5047,16 @@
         <v>8.153861377744215</v>
       </c>
       <c r="L11" t="n">
-        <v>101.2226417294279</v>
+        <v>57.21276443298322</v>
       </c>
       <c r="M11" t="n">
-        <v>202.1266762790125</v>
+        <v>158.1167989825679</v>
       </c>
       <c r="N11" t="n">
-        <v>303.0307108285972</v>
+        <v>259.0208335321526</v>
       </c>
       <c r="O11" t="n">
-        <v>386.7221098487126</v>
+        <v>342.7122325522679</v>
       </c>
       <c r="P11" t="n">
         <v>407.6930688872108</v>
@@ -5065,28 +5065,28 @@
         <v>407.6930688872108</v>
       </c>
       <c r="R11" t="n">
-        <v>407.6930688872108</v>
+        <v>317.0122468983585</v>
       </c>
       <c r="S11" t="n">
-        <v>407.6930688872108</v>
+        <v>214.0594517248204</v>
       </c>
       <c r="T11" t="n">
-        <v>407.6930688872108</v>
+        <v>214.0594517248204</v>
       </c>
       <c r="U11" t="n">
-        <v>407.6930688872108</v>
+        <v>214.0594517248204</v>
       </c>
       <c r="V11" t="n">
-        <v>407.6930688872108</v>
+        <v>214.0594517248204</v>
       </c>
       <c r="W11" t="n">
-        <v>407.6930688872108</v>
+        <v>214.0594517248204</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6930688872108</v>
+        <v>214.0594517248204</v>
       </c>
       <c r="Y11" t="n">
-        <v>407.6930688872108</v>
+        <v>214.0594517248204</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>407.6930688872108</v>
+        <v>98.83468336659649</v>
       </c>
       <c r="C12" t="n">
-        <v>407.6930688872108</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="D12" t="n">
-        <v>407.6930688872108</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="E12" t="n">
-        <v>407.6930688872108</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="F12" t="n">
-        <v>338.5784242393155</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="G12" t="n">
-        <v>235.6256290657774</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="H12" t="n">
-        <v>132.6728338922393</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="I12" t="n">
-        <v>34.81118002284108</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="J12" t="n">
         <v>8.153861377744215</v>
@@ -5132,7 +5132,7 @@
         <v>195.8637299375139</v>
       </c>
       <c r="N12" t="n">
-        <v>247.9950762895407</v>
+        <v>296.7677644870985</v>
       </c>
       <c r="O12" t="n">
         <v>348.8991108391253</v>
@@ -5144,28 +5144,28 @@
         <v>407.6930688872108</v>
       </c>
       <c r="R12" t="n">
-        <v>407.6930688872108</v>
+        <v>304.7402737136727</v>
       </c>
       <c r="S12" t="n">
-        <v>407.6930688872108</v>
+        <v>304.7402737136727</v>
       </c>
       <c r="T12" t="n">
-        <v>407.6930688872108</v>
+        <v>304.7402737136727</v>
       </c>
       <c r="U12" t="n">
-        <v>407.6930688872108</v>
+        <v>304.7402737136727</v>
       </c>
       <c r="V12" t="n">
-        <v>407.6930688872108</v>
+        <v>304.7402737136727</v>
       </c>
       <c r="W12" t="n">
-        <v>407.6930688872108</v>
+        <v>304.7402737136727</v>
       </c>
       <c r="X12" t="n">
-        <v>407.6930688872108</v>
+        <v>304.7402737136727</v>
       </c>
       <c r="Y12" t="n">
-        <v>407.6930688872108</v>
+        <v>201.7874785401346</v>
       </c>
     </row>
     <row r="13">
@@ -5214,34 +5214,34 @@
         <v>67.60807510975852</v>
       </c>
       <c r="O13" t="n">
-        <v>65.93359376996115</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="P13" t="n">
-        <v>34.87381124768854</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="R13" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="S13" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="T13" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="U13" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="V13" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="W13" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="X13" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="Y13" t="n">
         <v>8.153861377744215</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>407.6930688872108</v>
+        <v>214.0594517248204</v>
       </c>
       <c r="C14" t="n">
-        <v>304.7402737136727</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="D14" t="n">
-        <v>304.7402737136727</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="E14" t="n">
-        <v>304.7402737136727</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="F14" t="n">
-        <v>304.7402737136727</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="G14" t="n">
-        <v>214.0594517248204</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="H14" t="n">
-        <v>111.1066565512823</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="I14" t="n">
         <v>8.153861377744215</v>
@@ -5281,7 +5281,7 @@
         <v>8.153861377744215</v>
       </c>
       <c r="K14" t="n">
-        <v>8.153861377744215</v>
+        <v>52.16373867418887</v>
       </c>
       <c r="L14" t="n">
         <v>101.2226417294279</v>
@@ -5323,7 +5323,7 @@
         <v>407.6930688872108</v>
       </c>
       <c r="Y14" t="n">
-        <v>407.6930688872108</v>
+        <v>304.7402737136727</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.153861377744215</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="C15" t="n">
-        <v>8.153861377744215</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="D15" t="n">
-        <v>8.153861377744215</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="E15" t="n">
-        <v>8.153861377744215</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="F15" t="n">
         <v>8.153861377744215</v>
@@ -5360,16 +5360,16 @@
         <v>8.153861377744215</v>
       </c>
       <c r="K15" t="n">
-        <v>8.153861377744215</v>
+        <v>22.3281777418107</v>
       </c>
       <c r="L15" t="n">
-        <v>94.95969538792923</v>
+        <v>109.1340117519957</v>
       </c>
       <c r="M15" t="n">
-        <v>195.8637299375139</v>
+        <v>210.0380463015804</v>
       </c>
       <c r="N15" t="n">
-        <v>296.7677644870985</v>
+        <v>310.942080851165</v>
       </c>
       <c r="O15" t="n">
         <v>348.8991108391253</v>
@@ -5384,25 +5384,25 @@
         <v>407.6930688872108</v>
       </c>
       <c r="S15" t="n">
-        <v>304.7402737136727</v>
+        <v>407.6930688872108</v>
       </c>
       <c r="T15" t="n">
-        <v>304.7402737136727</v>
+        <v>407.6930688872108</v>
       </c>
       <c r="U15" t="n">
         <v>304.7402737136727</v>
       </c>
       <c r="V15" t="n">
-        <v>201.7874785401346</v>
+        <v>304.7402737136727</v>
       </c>
       <c r="W15" t="n">
-        <v>98.83468336659649</v>
+        <v>214.0594517248204</v>
       </c>
       <c r="X15" t="n">
-        <v>8.153861377744215</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.153861377744215</v>
+        <v>111.1066565512823</v>
       </c>
     </row>
     <row r="16">
@@ -5451,28 +5451,28 @@
         <v>67.60807510975852</v>
       </c>
       <c r="O16" t="n">
-        <v>65.93359376996115</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="P16" t="n">
-        <v>34.87381124768854</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="R16" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="S16" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="T16" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="U16" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="V16" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="W16" t="n">
         <v>8.153861377744215</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>441.5533821194355</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="C17" t="n">
-        <v>441.5533821194355</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="D17" t="n">
-        <v>441.5533821194355</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="E17" t="n">
-        <v>441.5533821194355</v>
+        <v>231.8378262885683</v>
       </c>
       <c r="F17" t="n">
-        <v>343.3412056116581</v>
+        <v>231.8378262885683</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8378262885683</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="H17" t="n">
         <v>120.3344469654785</v>
       </c>
       <c r="I17" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="J17" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="K17" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="L17" t="n">
         <v>57.88997069762772</v>
       </c>
       <c r="M17" t="n">
-        <v>167.174432772188</v>
+        <v>158.7940052472124</v>
       </c>
       <c r="N17" t="n">
-        <v>276.4588948467483</v>
+        <v>268.0784673217727</v>
       </c>
       <c r="O17" t="n">
-        <v>360.1502938668637</v>
+        <v>351.7698663418881</v>
       </c>
       <c r="P17" t="n">
-        <v>441.5533821194355</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="Q17" t="n">
-        <v>441.5533821194355</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="R17" t="n">
-        <v>441.5533821194355</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="S17" t="n">
-        <v>441.5533821194355</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="T17" t="n">
-        <v>441.5533821194355</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="U17" t="n">
-        <v>441.5533821194355</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="V17" t="n">
-        <v>441.5533821194355</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="W17" t="n">
-        <v>441.5533821194355</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="X17" t="n">
-        <v>441.5533821194355</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="Y17" t="n">
-        <v>441.5533821194355</v>
+        <v>343.3412056116581</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="C18" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="D18" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="E18" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="F18" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="G18" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="H18" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="I18" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="J18" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="K18" t="n">
         <v>23.00538400645519</v>
@@ -5603,7 +5603,7 @@
         <v>109.8112180166402</v>
       </c>
       <c r="M18" t="n">
-        <v>219.0956800912005</v>
+        <v>164.9902227502821</v>
       </c>
       <c r="N18" t="n">
         <v>274.2746848248424</v>
@@ -5612,10 +5612,10 @@
         <v>382.7594240713502</v>
       </c>
       <c r="P18" t="n">
-        <v>441.5533821194355</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="Q18" t="n">
-        <v>441.5533821194355</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="R18" t="n">
         <v>343.3412056116581</v>
@@ -5627,19 +5627,19 @@
         <v>120.3344469654785</v>
       </c>
       <c r="U18" t="n">
-        <v>8.83106764238871</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="V18" t="n">
-        <v>8.83106764238871</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="W18" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="X18" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.28528137440301</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="C19" t="n">
-        <v>68.28528137440301</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="D19" t="n">
-        <v>68.28528137440301</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="E19" t="n">
-        <v>68.28528137440301</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="F19" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="G19" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="H19" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="I19" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="J19" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="K19" t="n">
-        <v>8.83106764238871</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="L19" t="n">
         <v>20.3471033686193</v>
       </c>
       <c r="M19" t="n">
-        <v>39.10840570369678</v>
+        <v>39.10840570369679</v>
       </c>
       <c r="N19" t="n">
         <v>68.28528137440301</v>
@@ -5697,28 +5697,28 @@
         <v>68.28528137440301</v>
       </c>
       <c r="R19" t="n">
-        <v>68.28528137440301</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="S19" t="n">
-        <v>68.28528137440301</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="T19" t="n">
-        <v>68.28528137440301</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="U19" t="n">
-        <v>68.28528137440301</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="V19" t="n">
-        <v>68.28528137440301</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="W19" t="n">
-        <v>68.28528137440301</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="X19" t="n">
-        <v>68.28528137440301</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.28528137440301</v>
+        <v>8.831067642388712</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>120.3344469654781</v>
+        <v>218.5466234732561</v>
       </c>
       <c r="C20" t="n">
-        <v>120.3344469654781</v>
+        <v>218.5466234732561</v>
       </c>
       <c r="D20" t="n">
-        <v>120.3344469654781</v>
+        <v>218.5466234732561</v>
       </c>
       <c r="E20" t="n">
-        <v>120.3344469654781</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="F20" t="n">
-        <v>8.831067642388678</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="G20" t="n">
-        <v>8.831067642388678</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="H20" t="n">
-        <v>8.831067642388678</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="I20" t="n">
-        <v>8.831067642388678</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="J20" t="n">
-        <v>8.831067642388678</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="K20" t="n">
-        <v>8.831067642388678</v>
+        <v>77.64362438143812</v>
       </c>
       <c r="L20" t="n">
-        <v>118.1155297169486</v>
+        <v>126.7025274366771</v>
       </c>
       <c r="M20" t="n">
-        <v>227.3999917915085</v>
+        <v>227.6065619862618</v>
       </c>
       <c r="N20" t="n">
-        <v>336.6844538660683</v>
+        <v>336.8910240608221</v>
       </c>
       <c r="O20" t="n">
-        <v>420.5824230809357</v>
+        <v>420.5824230809375</v>
       </c>
       <c r="P20" t="n">
-        <v>441.5533821194339</v>
+        <v>441.5533821194357</v>
       </c>
       <c r="Q20" t="n">
-        <v>441.5533821194339</v>
+        <v>441.5533821194357</v>
       </c>
       <c r="R20" t="n">
-        <v>441.5533821194339</v>
+        <v>441.5533821194357</v>
       </c>
       <c r="S20" t="n">
-        <v>441.5533821194339</v>
+        <v>441.5533821194357</v>
       </c>
       <c r="T20" t="n">
-        <v>441.5533821194339</v>
+        <v>441.5533821194357</v>
       </c>
       <c r="U20" t="n">
-        <v>343.3412056116568</v>
+        <v>441.5533821194357</v>
       </c>
       <c r="V20" t="n">
-        <v>231.8378262885674</v>
+        <v>441.5533821194357</v>
       </c>
       <c r="W20" t="n">
-        <v>120.3344469654781</v>
+        <v>330.0500027963459</v>
       </c>
       <c r="X20" t="n">
-        <v>120.3344469654781</v>
+        <v>218.5466234732561</v>
       </c>
       <c r="Y20" t="n">
-        <v>120.3344469654781</v>
+        <v>218.5466234732561</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>107.0432441501658</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="C21" t="n">
-        <v>107.0432441501658</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="D21" t="n">
-        <v>8.831067642388678</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="E21" t="n">
-        <v>8.831067642388678</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="F21" t="n">
-        <v>8.831067642388678</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="G21" t="n">
-        <v>8.831067642388678</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="H21" t="n">
-        <v>8.831067642388678</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="I21" t="n">
-        <v>8.831067642388678</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="J21" t="n">
-        <v>8.831067642388678</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="K21" t="n">
-        <v>23.00538400645516</v>
+        <v>23.00538400645519</v>
       </c>
       <c r="L21" t="n">
         <v>109.8112180166402</v>
       </c>
       <c r="M21" t="n">
-        <v>164.9902227502809</v>
+        <v>164.9902227502822</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2746848248407</v>
+        <v>274.2746848248426</v>
       </c>
       <c r="O21" t="n">
-        <v>382.7594240713485</v>
+        <v>382.7594240713503</v>
       </c>
       <c r="P21" t="n">
-        <v>441.5533821194339</v>
+        <v>441.5533821194357</v>
       </c>
       <c r="Q21" t="n">
-        <v>441.5533821194339</v>
+        <v>441.5533821194357</v>
       </c>
       <c r="R21" t="n">
-        <v>441.5533821194339</v>
+        <v>330.0500027963459</v>
       </c>
       <c r="S21" t="n">
-        <v>330.0500027963445</v>
+        <v>231.8378262885684</v>
       </c>
       <c r="T21" t="n">
-        <v>330.0500027963445</v>
+        <v>231.8378262885684</v>
       </c>
       <c r="U21" t="n">
-        <v>218.5466234732552</v>
+        <v>231.8378262885684</v>
       </c>
       <c r="V21" t="n">
-        <v>107.0432441501658</v>
+        <v>231.8378262885684</v>
       </c>
       <c r="W21" t="n">
-        <v>107.0432441501658</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="X21" t="n">
-        <v>107.0432441501658</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="Y21" t="n">
-        <v>107.0432441501658</v>
+        <v>120.3344469654785</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.831067642388678</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="C22" t="n">
-        <v>8.831067642388678</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="D22" t="n">
-        <v>8.831067642388678</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="E22" t="n">
-        <v>8.831067642388678</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="F22" t="n">
-        <v>8.831067642388678</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="G22" t="n">
-        <v>8.831067642388678</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="H22" t="n">
-        <v>8.831067642388678</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="I22" t="n">
-        <v>8.831067642388678</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="J22" t="n">
-        <v>8.831067642388678</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="K22" t="n">
-        <v>8.831067642388678</v>
+        <v>8.831067642388714</v>
       </c>
       <c r="L22" t="n">
-        <v>20.34710336861927</v>
+        <v>20.3471033686193</v>
       </c>
       <c r="M22" t="n">
-        <v>39.10840570369675</v>
+        <v>39.10840570369679</v>
       </c>
       <c r="N22" t="n">
-        <v>68.28528137440297</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="O22" t="n">
-        <v>68.28528137440297</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="P22" t="n">
-        <v>68.28528137440297</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.28528137440297</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="R22" t="n">
-        <v>8.831067642388678</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="S22" t="n">
-        <v>8.831067642388678</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="T22" t="n">
-        <v>8.831067642388678</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="U22" t="n">
-        <v>8.831067642388678</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="V22" t="n">
-        <v>8.831067642388678</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="W22" t="n">
-        <v>8.831067642388678</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="X22" t="n">
-        <v>8.831067642388678</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.831067642388678</v>
+        <v>68.28528137440301</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.0003035923115</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0003035923115</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="D23" t="n">
-        <v>406.0003035923115</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="E23" t="n">
-        <v>285.1877808206534</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="F23" t="n">
-        <v>285.1877808206534</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="G23" t="n">
-        <v>148.0255160935211</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="H23" t="n">
         <v>10.86325136638887</v>
@@ -5992,16 +5992,16 @@
         <v>10.86325136638887</v>
       </c>
       <c r="K23" t="n">
-        <v>10.86325136638887</v>
+        <v>90.34054279930086</v>
       </c>
       <c r="L23" t="n">
-        <v>145.2959870254512</v>
+        <v>169.6347389427055</v>
       </c>
       <c r="M23" t="n">
-        <v>253.3261379628208</v>
+        <v>304.0674746017678</v>
       </c>
       <c r="N23" t="n">
-        <v>387.7588736218831</v>
+        <v>438.5002102608301</v>
       </c>
       <c r="O23" t="n">
         <v>522.1916092809455</v>
@@ -6010,31 +6010,31 @@
         <v>543.1625683194437</v>
       </c>
       <c r="Q23" t="n">
-        <v>543.1625683194437</v>
+        <v>543.1070164156821</v>
       </c>
       <c r="R23" t="n">
-        <v>543.1625683194437</v>
+        <v>543.1070164156821</v>
       </c>
       <c r="S23" t="n">
-        <v>543.1625683194437</v>
+        <v>543.1070164156821</v>
       </c>
       <c r="T23" t="n">
-        <v>543.1625683194437</v>
+        <v>543.1070164156821</v>
       </c>
       <c r="U23" t="n">
-        <v>543.1625683194437</v>
+        <v>405.9447516885498</v>
       </c>
       <c r="V23" t="n">
-        <v>543.1625683194437</v>
+        <v>405.9447516885498</v>
       </c>
       <c r="W23" t="n">
-        <v>543.1625683194437</v>
+        <v>268.7824869614176</v>
       </c>
       <c r="X23" t="n">
-        <v>543.1625683194437</v>
+        <v>131.6202222342853</v>
       </c>
       <c r="Y23" t="n">
-        <v>543.1625683194437</v>
+        <v>10.86325136638887</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>148.0255160935211</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="C24" t="n">
-        <v>148.0255160935211</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="D24" t="n">
-        <v>148.0255160935211</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="E24" t="n">
-        <v>148.0255160935211</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="F24" t="n">
-        <v>148.0255160935211</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="G24" t="n">
         <v>10.86325136638887</v>
@@ -6095,25 +6095,25 @@
         <v>423.7647735574257</v>
       </c>
       <c r="S24" t="n">
-        <v>422.3500455477857</v>
+        <v>286.6025088302934</v>
       </c>
       <c r="T24" t="n">
-        <v>285.1877808206534</v>
+        <v>149.4402441031611</v>
       </c>
       <c r="U24" t="n">
-        <v>285.1877808206534</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="V24" t="n">
-        <v>285.1877808206534</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="W24" t="n">
-        <v>285.1877808206534</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="X24" t="n">
-        <v>285.1877808206534</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="Y24" t="n">
-        <v>148.0255160935211</v>
+        <v>10.86325136638887</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.86325136638887</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="C25" t="n">
-        <v>10.86325136638887</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="D25" t="n">
-        <v>10.86325136638887</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="E25" t="n">
-        <v>10.86325136638887</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="F25" t="n">
         <v>10.86325136638887</v>
@@ -6177,22 +6177,22 @@
         <v>70.31746509840318</v>
       </c>
       <c r="T25" t="n">
-        <v>10.86325136638887</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="U25" t="n">
-        <v>10.86325136638887</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="V25" t="n">
-        <v>10.86325136638887</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="W25" t="n">
-        <v>10.86325136638887</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="X25" t="n">
-        <v>10.86325136638887</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.86325136638887</v>
+        <v>70.31746509840318</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.0003035923115</v>
+        <v>543.1625683194437</v>
       </c>
       <c r="C26" t="n">
-        <v>268.8380388651792</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="D26" t="n">
-        <v>148.0255160935211</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="E26" t="n">
-        <v>148.0255160935211</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="F26" t="n">
-        <v>148.0255160935211</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="G26" t="n">
-        <v>148.0255160935211</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="H26" t="n">
         <v>148.0255160935211</v>
@@ -6229,19 +6229,19 @@
         <v>10.86325136638887</v>
       </c>
       <c r="K26" t="n">
-        <v>10.86325136638887</v>
+        <v>90.34054279930086</v>
       </c>
       <c r="L26" t="n">
-        <v>145.2959870254512</v>
+        <v>145.4807261533455</v>
       </c>
       <c r="M26" t="n">
-        <v>278.4744115473228</v>
+        <v>246.3847607029302</v>
       </c>
       <c r="N26" t="n">
-        <v>387.7588736218831</v>
+        <v>355.6692227774905</v>
       </c>
       <c r="O26" t="n">
-        <v>522.1916092809455</v>
+        <v>439.3606217976059</v>
       </c>
       <c r="P26" t="n">
         <v>543.1625683194437</v>
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>268.8380388651792</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="C27" t="n">
-        <v>131.675774138047</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="D27" t="n">
-        <v>10.86325136638887</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="E27" t="n">
-        <v>10.86325136638887</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="F27" t="n">
-        <v>10.86325136638887</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="G27" t="n">
         <v>10.86325136638887</v>
@@ -6308,13 +6308,13 @@
         <v>10.86325136638887</v>
       </c>
       <c r="K27" t="n">
-        <v>25.03756773045536</v>
+        <v>25.03756773045529</v>
       </c>
       <c r="L27" t="n">
-        <v>111.8434017406404</v>
+        <v>111.8434017406403</v>
       </c>
       <c r="M27" t="n">
-        <v>241.4511353657882</v>
+        <v>241.4511353657883</v>
       </c>
       <c r="N27" t="n">
         <v>375.8838710248506</v>
@@ -6347,10 +6347,10 @@
         <v>543.1625683194437</v>
       </c>
       <c r="X27" t="n">
-        <v>543.1625683194437</v>
+        <v>422.3500455477857</v>
       </c>
       <c r="Y27" t="n">
-        <v>406.0003035923115</v>
+        <v>285.1877808206534</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="C28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="D28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="E28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="F28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="G28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="H28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="I28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="J28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="K28" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="L28" t="n">
-        <v>495.2243903136601</v>
+        <v>22.37928709261946</v>
       </c>
       <c r="M28" t="n">
-        <v>513.9856926487375</v>
+        <v>41.14058942769695</v>
       </c>
       <c r="N28" t="n">
-        <v>543.1625683194437</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="O28" t="n">
-        <v>543.1625683194437</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="P28" t="n">
-        <v>543.1625683194437</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="Q28" t="n">
-        <v>543.1625683194437</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="R28" t="n">
-        <v>543.1625683194437</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="S28" t="n">
-        <v>543.1625683194437</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="T28" t="n">
-        <v>543.1625683194437</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="U28" t="n">
-        <v>543.1625683194437</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="V28" t="n">
-        <v>543.1625683194437</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="W28" t="n">
-        <v>543.1625683194437</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="X28" t="n">
-        <v>543.1625683194437</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="Y28" t="n">
-        <v>543.1625683194437</v>
+        <v>10.86325136638887</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>148.0255160935211</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="C29" t="n">
         <v>10.86325136638887</v>
@@ -6466,19 +6466,19 @@
         <v>10.86325136638887</v>
       </c>
       <c r="K29" t="n">
-        <v>90.34054279930086</v>
+        <v>11.0479904942832</v>
       </c>
       <c r="L29" t="n">
-        <v>224.7732784583632</v>
+        <v>145.4807261533455</v>
       </c>
       <c r="M29" t="n">
-        <v>329.2157481862698</v>
+        <v>246.3847607029302</v>
       </c>
       <c r="N29" t="n">
-        <v>438.5002102608301</v>
+        <v>355.6692227774905</v>
       </c>
       <c r="O29" t="n">
-        <v>522.1916092809455</v>
+        <v>439.3606217976059</v>
       </c>
       <c r="P29" t="n">
         <v>543.1625683194437</v>
@@ -6487,28 +6487,28 @@
         <v>543.1625683194437</v>
       </c>
       <c r="R29" t="n">
-        <v>543.1625683194437</v>
+        <v>406.0003035923115</v>
       </c>
       <c r="S29" t="n">
-        <v>543.1625683194437</v>
+        <v>406.0003035923115</v>
       </c>
       <c r="T29" t="n">
-        <v>543.1625683194437</v>
+        <v>406.0003035923115</v>
       </c>
       <c r="U29" t="n">
-        <v>422.3500455477857</v>
+        <v>268.8380388651792</v>
       </c>
       <c r="V29" t="n">
-        <v>422.3500455477857</v>
+        <v>131.675774138047</v>
       </c>
       <c r="W29" t="n">
-        <v>285.1877808206534</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="X29" t="n">
-        <v>285.1877808206534</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="Y29" t="n">
-        <v>285.1877808206534</v>
+        <v>10.86325136638887</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>543.1625683194437</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="C30" t="n">
-        <v>406.0003035923115</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="D30" t="n">
-        <v>268.8380388651792</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="E30" t="n">
-        <v>131.675774138047</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="F30" t="n">
-        <v>131.675774138047</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="G30" t="n">
         <v>10.86325136638887</v>
@@ -6545,13 +6545,13 @@
         <v>10.86325136638887</v>
       </c>
       <c r="K30" t="n">
-        <v>25.03756773045529</v>
+        <v>25.03756773045536</v>
       </c>
       <c r="L30" t="n">
-        <v>111.8434017406403</v>
+        <v>111.8434017406404</v>
       </c>
       <c r="M30" t="n">
-        <v>241.4511353657883</v>
+        <v>241.4511353657882</v>
       </c>
       <c r="N30" t="n">
         <v>375.8838710248506</v>
@@ -6572,22 +6572,22 @@
         <v>543.1625683194437</v>
       </c>
       <c r="T30" t="n">
-        <v>543.1625683194437</v>
+        <v>406.0003035923115</v>
       </c>
       <c r="U30" t="n">
-        <v>543.1625683194437</v>
+        <v>285.1877808206534</v>
       </c>
       <c r="V30" t="n">
-        <v>543.1625683194437</v>
+        <v>148.0255160935211</v>
       </c>
       <c r="W30" t="n">
-        <v>543.1625683194437</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="X30" t="n">
-        <v>543.1625683194437</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="Y30" t="n">
-        <v>543.1625683194437</v>
+        <v>10.86325136638887</v>
       </c>
     </row>
     <row r="31">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>543.1625683194437</v>
+        <v>131.675774138047</v>
       </c>
       <c r="C32" t="n">
-        <v>543.1625683194437</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="D32" t="n">
-        <v>543.1625683194437</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="E32" t="n">
-        <v>543.1625683194437</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="F32" t="n">
-        <v>422.3500455477857</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="G32" t="n">
-        <v>285.1877808206534</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="H32" t="n">
-        <v>148.0255160935211</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="I32" t="n">
         <v>10.86325136638887</v>
@@ -6703,16 +6703,16 @@
         <v>10.86325136638887</v>
       </c>
       <c r="K32" t="n">
-        <v>10.86325136638887</v>
+        <v>90.34054279930086</v>
       </c>
       <c r="L32" t="n">
-        <v>59.92215442162788</v>
+        <v>139.3994458545399</v>
       </c>
       <c r="M32" t="n">
-        <v>170.4951504794813</v>
+        <v>240.3034804041245</v>
       </c>
       <c r="N32" t="n">
-        <v>304.9278861385436</v>
+        <v>355.6692227774905</v>
       </c>
       <c r="O32" t="n">
         <v>439.3606217976059</v>
@@ -6724,28 +6724,28 @@
         <v>543.1625683194437</v>
       </c>
       <c r="R32" t="n">
-        <v>543.1625683194437</v>
+        <v>406.0003035923115</v>
       </c>
       <c r="S32" t="n">
-        <v>543.1625683194437</v>
+        <v>406.0003035923115</v>
       </c>
       <c r="T32" t="n">
-        <v>543.1625683194437</v>
+        <v>406.0003035923115</v>
       </c>
       <c r="U32" t="n">
-        <v>543.1625683194437</v>
+        <v>268.8380388651792</v>
       </c>
       <c r="V32" t="n">
-        <v>543.1625683194437</v>
+        <v>131.675774138047</v>
       </c>
       <c r="W32" t="n">
-        <v>543.1625683194437</v>
+        <v>131.675774138047</v>
       </c>
       <c r="X32" t="n">
-        <v>543.1625683194437</v>
+        <v>131.675774138047</v>
       </c>
       <c r="Y32" t="n">
-        <v>543.1625683194437</v>
+        <v>131.675774138047</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>406.0003035923115</v>
+        <v>131.675774138047</v>
       </c>
       <c r="C33" t="n">
-        <v>268.8380388651792</v>
+        <v>131.675774138047</v>
       </c>
       <c r="D33" t="n">
-        <v>268.8380388651792</v>
+        <v>131.675774138047</v>
       </c>
       <c r="E33" t="n">
-        <v>148.0255160935211</v>
+        <v>131.675774138047</v>
       </c>
       <c r="F33" t="n">
-        <v>148.0255160935211</v>
+        <v>131.675774138047</v>
       </c>
       <c r="G33" t="n">
         <v>10.86325136638887</v>
@@ -6812,19 +6812,19 @@
         <v>543.1625683194437</v>
       </c>
       <c r="U33" t="n">
-        <v>543.1625683194437</v>
+        <v>406.0003035923115</v>
       </c>
       <c r="V33" t="n">
-        <v>543.1625683194437</v>
+        <v>268.8380388651792</v>
       </c>
       <c r="W33" t="n">
-        <v>543.1625683194437</v>
+        <v>131.675774138047</v>
       </c>
       <c r="X33" t="n">
-        <v>543.1625683194437</v>
+        <v>131.675774138047</v>
       </c>
       <c r="Y33" t="n">
-        <v>543.1625683194437</v>
+        <v>131.675774138047</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="C34" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="D34" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="E34" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="F34" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="G34" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="H34" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="I34" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="J34" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="K34" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="L34" t="n">
-        <v>495.2243903136601</v>
+        <v>22.37928709261946</v>
       </c>
       <c r="M34" t="n">
-        <v>513.9856926487375</v>
+        <v>41.14058942769695</v>
       </c>
       <c r="N34" t="n">
-        <v>543.1625683194437</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="O34" t="n">
-        <v>543.1625683194437</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="P34" t="n">
-        <v>543.1625683194437</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="Q34" t="n">
-        <v>543.1625683194437</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="R34" t="n">
-        <v>483.7083545874295</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="S34" t="n">
-        <v>483.7083545874295</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="T34" t="n">
-        <v>483.7083545874295</v>
+        <v>70.31746509840318</v>
       </c>
       <c r="U34" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="V34" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="W34" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="X34" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
       <c r="Y34" t="n">
-        <v>483.7083545874295</v>
+        <v>10.86325136638887</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.831067642388712</v>
+        <v>240.6398458132373</v>
       </c>
       <c r="C35" t="n">
-        <v>8.831067642388712</v>
+        <v>129.1364664901475</v>
       </c>
       <c r="D35" t="n">
-        <v>8.831067642388712</v>
+        <v>129.1364664901475</v>
       </c>
       <c r="E35" t="n">
-        <v>8.831067642388712</v>
+        <v>129.1364664901475</v>
       </c>
       <c r="F35" t="n">
-        <v>8.831067642388712</v>
+        <v>129.1364664901475</v>
       </c>
       <c r="G35" t="n">
-        <v>8.831067642388712</v>
+        <v>129.1364664901475</v>
       </c>
       <c r="H35" t="n">
-        <v>8.831067642388712</v>
+        <v>129.1364664901475</v>
       </c>
       <c r="I35" t="n">
-        <v>8.831067642388712</v>
+        <v>17.63308716705771</v>
       </c>
       <c r="J35" t="n">
         <v>8.831067642388712</v>
       </c>
       <c r="K35" t="n">
-        <v>69.2631968564624</v>
+        <v>77.64362438143803</v>
       </c>
       <c r="L35" t="n">
-        <v>118.3220999117014</v>
+        <v>126.702527436677</v>
       </c>
       <c r="M35" t="n">
         <v>227.6065619862617</v>
@@ -6961,28 +6961,28 @@
         <v>441.5533821194356</v>
       </c>
       <c r="R35" t="n">
-        <v>343.3412056116581</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="S35" t="n">
-        <v>231.8378262885683</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="T35" t="n">
-        <v>120.3344469654785</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="U35" t="n">
-        <v>8.831067642388712</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="V35" t="n">
-        <v>8.831067642388712</v>
+        <v>352.1432251363271</v>
       </c>
       <c r="W35" t="n">
-        <v>8.831067642388712</v>
+        <v>352.1432251363271</v>
       </c>
       <c r="X35" t="n">
-        <v>8.831067642388712</v>
+        <v>352.1432251363271</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.831067642388712</v>
+        <v>352.1432251363271</v>
       </c>
     </row>
     <row r="36">
@@ -7019,13 +7019,13 @@
         <v>8.831067642388712</v>
       </c>
       <c r="K36" t="n">
-        <v>8.831067642388712</v>
+        <v>23.00538400645519</v>
       </c>
       <c r="L36" t="n">
-        <v>95.63690165257373</v>
+        <v>109.8112180166402</v>
       </c>
       <c r="M36" t="n">
-        <v>204.921363727134</v>
+        <v>219.0956800912005</v>
       </c>
       <c r="N36" t="n">
         <v>274.2746848248424</v>
@@ -7040,25 +7040,25 @@
         <v>441.5533821194356</v>
       </c>
       <c r="R36" t="n">
-        <v>343.3412056116581</v>
+        <v>441.5533821194356</v>
       </c>
       <c r="S36" t="n">
-        <v>343.3412056116581</v>
+        <v>330.0500027963458</v>
       </c>
       <c r="T36" t="n">
-        <v>343.3412056116581</v>
+        <v>330.0500027963458</v>
       </c>
       <c r="U36" t="n">
-        <v>343.3412056116581</v>
+        <v>330.0500027963458</v>
       </c>
       <c r="V36" t="n">
-        <v>343.3412056116581</v>
+        <v>218.546623473256</v>
       </c>
       <c r="W36" t="n">
-        <v>231.8378262885683</v>
+        <v>107.0432441501662</v>
       </c>
       <c r="X36" t="n">
-        <v>120.3344469654785</v>
+        <v>107.0432441501662</v>
       </c>
       <c r="Y36" t="n">
         <v>8.831067642388712</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>441.5533821194356</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="C37" t="n">
-        <v>441.5533821194356</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="D37" t="n">
-        <v>441.5533821194356</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="E37" t="n">
-        <v>441.5533821194356</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="F37" t="n">
-        <v>441.5533821194356</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="G37" t="n">
-        <v>441.5533821194356</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="H37" t="n">
-        <v>441.5533821194356</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="I37" t="n">
-        <v>441.5533821194356</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="J37" t="n">
-        <v>413.1012825339758</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="K37" t="n">
-        <v>382.0991683874213</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="L37" t="n">
-        <v>393.6152041136519</v>
+        <v>20.3471033686193</v>
       </c>
       <c r="M37" t="n">
-        <v>412.3765064487293</v>
+        <v>39.10840570369679</v>
       </c>
       <c r="N37" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="O37" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="P37" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="Q37" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="R37" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="S37" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="T37" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="U37" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="V37" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="W37" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="X37" t="n">
-        <v>441.5533821194356</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="Y37" t="n">
-        <v>441.5533821194356</v>
+        <v>8.831067642388712</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.8378262885683</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="C38" t="n">
-        <v>231.8378262885683</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="D38" t="n">
-        <v>231.8378262885683</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="E38" t="n">
-        <v>120.3344469654785</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="F38" t="n">
         <v>8.831067642388712</v>
@@ -7177,19 +7177,19 @@
         <v>8.831067642388712</v>
       </c>
       <c r="K38" t="n">
-        <v>8.831067642388712</v>
+        <v>77.64362438143803</v>
       </c>
       <c r="L38" t="n">
-        <v>57.88997069762772</v>
+        <v>126.702527436677</v>
       </c>
       <c r="M38" t="n">
-        <v>167.174432772188</v>
+        <v>227.6065619862617</v>
       </c>
       <c r="N38" t="n">
-        <v>276.4588948467483</v>
+        <v>336.891024060822</v>
       </c>
       <c r="O38" t="n">
-        <v>360.1502938668637</v>
+        <v>420.5824230809374</v>
       </c>
       <c r="P38" t="n">
         <v>441.5533821194356</v>
@@ -7201,25 +7201,25 @@
         <v>441.5533821194356</v>
       </c>
       <c r="S38" t="n">
-        <v>441.5533821194356</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="T38" t="n">
-        <v>441.5533821194356</v>
+        <v>231.8378262885683</v>
       </c>
       <c r="U38" t="n">
-        <v>441.5533821194356</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="V38" t="n">
-        <v>441.5533821194356</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="W38" t="n">
-        <v>343.3412056116581</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="X38" t="n">
-        <v>231.8378262885683</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="Y38" t="n">
-        <v>231.8378262885683</v>
+        <v>8.831067642388712</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>356.3567988030634</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="C39" t="n">
-        <v>356.3567988030634</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="D39" t="n">
-        <v>356.3567988030634</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="E39" t="n">
-        <v>356.3567988030634</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="F39" t="n">
-        <v>356.3567988030634</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="G39" t="n">
-        <v>244.8534194799736</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="H39" t="n">
-        <v>133.3500401568838</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="I39" t="n">
-        <v>35.48838628748558</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="J39" t="n">
         <v>8.831067642388712</v>
@@ -7259,7 +7259,7 @@
         <v>23.00538400645519</v>
       </c>
       <c r="L39" t="n">
-        <v>55.70576067572182</v>
+        <v>109.8112180166402</v>
       </c>
       <c r="M39" t="n">
         <v>164.9902227502821</v>
@@ -7277,28 +7277,28 @@
         <v>441.5533821194356</v>
       </c>
       <c r="R39" t="n">
-        <v>356.3567988030634</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="S39" t="n">
-        <v>356.3567988030634</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="T39" t="n">
-        <v>356.3567988030634</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="U39" t="n">
-        <v>356.3567988030634</v>
+        <v>343.3412056116581</v>
       </c>
       <c r="V39" t="n">
-        <v>356.3567988030634</v>
+        <v>231.8378262885683</v>
       </c>
       <c r="W39" t="n">
-        <v>356.3567988030634</v>
+        <v>120.3344469654785</v>
       </c>
       <c r="X39" t="n">
-        <v>356.3567988030634</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="Y39" t="n">
-        <v>356.3567988030634</v>
+        <v>8.831067642388712</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>382.0991683874213</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="C40" t="n">
-        <v>382.0991683874213</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="D40" t="n">
-        <v>382.0991683874213</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="E40" t="n">
-        <v>382.0991683874213</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="F40" t="n">
-        <v>382.0991683874213</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="G40" t="n">
-        <v>382.0991683874213</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="H40" t="n">
-        <v>382.0991683874213</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="I40" t="n">
-        <v>382.0991683874213</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="J40" t="n">
-        <v>382.0991683874213</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="K40" t="n">
-        <v>382.0991683874213</v>
+        <v>8.831067642388712</v>
       </c>
       <c r="L40" t="n">
-        <v>393.6152041136519</v>
+        <v>20.3471033686193</v>
       </c>
       <c r="M40" t="n">
-        <v>412.3765064487293</v>
+        <v>39.10840570369679</v>
       </c>
       <c r="N40" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="O40" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="P40" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="Q40" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="R40" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="S40" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="T40" t="n">
-        <v>441.5533821194356</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="U40" t="n">
-        <v>382.0991683874213</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="V40" t="n">
-        <v>382.0991683874213</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="W40" t="n">
-        <v>382.0991683874213</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="X40" t="n">
-        <v>382.0991683874213</v>
+        <v>68.28528137440301</v>
       </c>
       <c r="Y40" t="n">
-        <v>382.0991683874213</v>
+        <v>68.28528137440301</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>317.0122468983585</v>
+        <v>98.83468336659649</v>
       </c>
       <c r="C41" t="n">
-        <v>214.0594517248204</v>
+        <v>98.83468336659649</v>
       </c>
       <c r="D41" t="n">
-        <v>111.1066565512823</v>
+        <v>98.83468336659649</v>
       </c>
       <c r="E41" t="n">
-        <v>8.153861377744215</v>
+        <v>98.83468336659649</v>
       </c>
       <c r="F41" t="n">
         <v>8.153861377744215</v>
@@ -7414,19 +7414,19 @@
         <v>8.153861377744215</v>
       </c>
       <c r="K41" t="n">
-        <v>8.153861377744215</v>
+        <v>52.16373867418887</v>
       </c>
       <c r="L41" t="n">
-        <v>57.21276443298322</v>
+        <v>101.2226417294279</v>
       </c>
       <c r="M41" t="n">
-        <v>158.1167989825679</v>
+        <v>202.1266762790125</v>
       </c>
       <c r="N41" t="n">
-        <v>259.0208335321526</v>
+        <v>303.0307108285972</v>
       </c>
       <c r="O41" t="n">
-        <v>342.7122325522679</v>
+        <v>386.7221098487126</v>
       </c>
       <c r="P41" t="n">
         <v>407.6930688872108</v>
@@ -7438,25 +7438,25 @@
         <v>407.6930688872108</v>
       </c>
       <c r="S41" t="n">
-        <v>407.6930688872108</v>
+        <v>304.7402737136727</v>
       </c>
       <c r="T41" t="n">
-        <v>407.6930688872108</v>
+        <v>304.7402737136727</v>
       </c>
       <c r="U41" t="n">
-        <v>407.6930688872108</v>
+        <v>201.7874785401346</v>
       </c>
       <c r="V41" t="n">
-        <v>407.6930688872108</v>
+        <v>201.7874785401346</v>
       </c>
       <c r="W41" t="n">
-        <v>407.6930688872108</v>
+        <v>98.83468336659649</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6930688872108</v>
+        <v>98.83468336659649</v>
       </c>
       <c r="Y41" t="n">
-        <v>407.6930688872108</v>
+        <v>98.83468336659649</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>338.5784242393155</v>
+        <v>214.0594517248204</v>
       </c>
       <c r="C42" t="n">
-        <v>338.5784242393155</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="D42" t="n">
-        <v>338.5784242393155</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="E42" t="n">
-        <v>338.5784242393155</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="F42" t="n">
-        <v>338.5784242393155</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="G42" t="n">
-        <v>235.6256290657774</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="H42" t="n">
-        <v>132.6728338922393</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="I42" t="n">
-        <v>34.81118002284108</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="J42" t="n">
         <v>8.153861377744215</v>
@@ -7499,7 +7499,7 @@
         <v>109.1340117519957</v>
       </c>
       <c r="M42" t="n">
-        <v>210.0380463015804</v>
+        <v>147.091041739956</v>
       </c>
       <c r="N42" t="n">
         <v>247.9950762895407</v>
@@ -7514,28 +7514,28 @@
         <v>407.6930688872108</v>
       </c>
       <c r="R42" t="n">
-        <v>338.5784242393155</v>
+        <v>407.6930688872108</v>
       </c>
       <c r="S42" t="n">
-        <v>338.5784242393155</v>
+        <v>407.6930688872108</v>
       </c>
       <c r="T42" t="n">
-        <v>338.5784242393155</v>
+        <v>317.0122468983585</v>
       </c>
       <c r="U42" t="n">
-        <v>338.5784242393155</v>
+        <v>214.0594517248204</v>
       </c>
       <c r="V42" t="n">
-        <v>338.5784242393155</v>
+        <v>214.0594517248204</v>
       </c>
       <c r="W42" t="n">
-        <v>338.5784242393155</v>
+        <v>214.0594517248204</v>
       </c>
       <c r="X42" t="n">
-        <v>338.5784242393155</v>
+        <v>214.0594517248204</v>
       </c>
       <c r="Y42" t="n">
-        <v>338.5784242393155</v>
+        <v>214.0594517248204</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="C43" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="D43" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="E43" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="F43" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="G43" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="H43" t="n">
         <v>8.153861377744215</v>
@@ -7584,37 +7584,37 @@
         <v>67.60807510975852</v>
       </c>
       <c r="O43" t="n">
-        <v>65.93359376996115</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="P43" t="n">
-        <v>65.93359376996115</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="R43" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="S43" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="T43" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="U43" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="V43" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="W43" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="X43" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>407.6930688872108</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="C44" t="n">
-        <v>407.6930688872108</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="D44" t="n">
-        <v>304.7402737136727</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="E44" t="n">
-        <v>304.7402737136727</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="F44" t="n">
-        <v>201.7874785401346</v>
+        <v>111.1066565512823</v>
       </c>
       <c r="G44" t="n">
-        <v>111.1066565512823</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="H44" t="n">
         <v>8.153861377744215</v>
@@ -7654,16 +7654,16 @@
         <v>8.153861377744215</v>
       </c>
       <c r="L44" t="n">
-        <v>57.21276443298322</v>
+        <v>101.2226417294279</v>
       </c>
       <c r="M44" t="n">
-        <v>158.1167989825679</v>
+        <v>202.1266762790125</v>
       </c>
       <c r="N44" t="n">
-        <v>259.0208335321526</v>
+        <v>303.0307108285972</v>
       </c>
       <c r="O44" t="n">
-        <v>342.7122325522679</v>
+        <v>386.7221098487126</v>
       </c>
       <c r="P44" t="n">
         <v>407.6930688872108</v>
@@ -7675,25 +7675,25 @@
         <v>407.6930688872108</v>
       </c>
       <c r="S44" t="n">
-        <v>407.6930688872108</v>
+        <v>317.0122468983585</v>
       </c>
       <c r="T44" t="n">
-        <v>407.6930688872108</v>
+        <v>317.0122468983585</v>
       </c>
       <c r="U44" t="n">
-        <v>407.6930688872108</v>
+        <v>317.0122468983585</v>
       </c>
       <c r="V44" t="n">
-        <v>407.6930688872108</v>
+        <v>317.0122468983585</v>
       </c>
       <c r="W44" t="n">
-        <v>407.6930688872108</v>
+        <v>317.0122468983585</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6930688872108</v>
+        <v>214.0594517248204</v>
       </c>
       <c r="Y44" t="n">
-        <v>407.6930688872108</v>
+        <v>214.0594517248204</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.81118002284108</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="C45" t="n">
-        <v>34.81118002284108</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="D45" t="n">
-        <v>34.81118002284108</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="E45" t="n">
-        <v>34.81118002284108</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="F45" t="n">
-        <v>34.81118002284108</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="G45" t="n">
-        <v>34.81118002284108</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="H45" t="n">
-        <v>34.81118002284108</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="I45" t="n">
-        <v>34.81118002284108</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="J45" t="n">
         <v>8.153861377744215</v>
@@ -7733,13 +7733,13 @@
         <v>22.3281777418107</v>
       </c>
       <c r="L45" t="n">
-        <v>109.1340117519957</v>
+        <v>46.18700719037138</v>
       </c>
       <c r="M45" t="n">
-        <v>210.0380463015804</v>
+        <v>147.091041739956</v>
       </c>
       <c r="N45" t="n">
-        <v>310.942080851165</v>
+        <v>247.9950762895407</v>
       </c>
       <c r="O45" t="n">
         <v>348.8991108391253</v>
@@ -7760,19 +7760,19 @@
         <v>98.83468336659649</v>
       </c>
       <c r="U45" t="n">
-        <v>34.81118002284108</v>
+        <v>98.83468336659649</v>
       </c>
       <c r="V45" t="n">
-        <v>34.81118002284108</v>
+        <v>98.83468336659649</v>
       </c>
       <c r="W45" t="n">
-        <v>34.81118002284108</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="X45" t="n">
-        <v>34.81118002284108</v>
+        <v>8.153861377744215</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.81118002284108</v>
+        <v>8.153861377744215</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="C46" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="D46" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="E46" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="F46" t="n">
         <v>8.153861377744215</v>
@@ -7821,37 +7821,37 @@
         <v>67.60807510975852</v>
       </c>
       <c r="O46" t="n">
-        <v>65.93359376996115</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="P46" t="n">
-        <v>34.87381124768854</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="R46" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="S46" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="T46" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="U46" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="V46" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="W46" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="X46" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.153861377744215</v>
+        <v>67.60807510975852</v>
       </c>
     </row>
   </sheetData>
@@ -8695,7 +8695,7 @@
         <v>3.997714912026083</v>
       </c>
       <c r="L11" t="n">
-        <v>44.45442151156026</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>44.45442151156023</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8929,10 +8929,10 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>3.997714912026083</v>
+        <v>48.45213642358635</v>
       </c>
       <c r="L14" t="n">
-        <v>44.45442151156026</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>8.465078308056192</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>61.04255476169054</v>
+        <v>69.50763306974679</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9403,19 +9403,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>3.997714912026083</v>
+        <v>73.50534798177296</v>
       </c>
       <c r="L20" t="n">
-        <v>60.83389799931402</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>8.46507830805578</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2086567623757531</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>3.997714912026083</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L23" t="n">
-        <v>86.23619454931648</v>
+        <v>30.54070008905616</v>
       </c>
       <c r="M23" t="n">
-        <v>7.198097361398922</v>
+        <v>33.86737485805821</v>
       </c>
       <c r="N23" t="n">
         <v>25.40229655000201</v>
       </c>
       <c r="O23" t="n">
-        <v>51.25387539287567</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>3.997714912026083</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L26" t="n">
-        <v>86.23619454931648</v>
+        <v>6.142707372530971</v>
       </c>
       <c r="M26" t="n">
-        <v>32.60039391140094</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>51.25387539287567</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -10114,13 +10114,13 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>84.27780726850284</v>
+        <v>4.184320091717319</v>
       </c>
       <c r="L29" t="n">
-        <v>86.23619454931648</v>
+        <v>86.23619454931651</v>
       </c>
       <c r="M29" t="n">
-        <v>3.57417694779997</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10351,19 +10351,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>3.997714912026083</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>9.766627786130044</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>25.40229655000201</v>
+        <v>6.142707372531007</v>
       </c>
       <c r="O32" t="n">
-        <v>51.25387539287567</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>83.66766412458549</v>
@@ -10588,13 +10588,13 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>65.04026967371668</v>
+        <v>73.50534798177287</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>8.465078308056206</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>3.997714912026083</v>
+        <v>73.50534798177287</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>8.465078308056206</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>61.0425547616906</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -11062,7 +11062,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>3.997714912026083</v>
+        <v>48.45213642358635</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>44.45442151156023</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11302,7 +11302,7 @@
         <v>3.997714912026083</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>44.45442151156026</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>44.45442151156023</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>364.5563275970632</v>
+        <v>262.6330603752605</v>
       </c>
       <c r="C11" t="n">
         <v>333.5971194742085</v>
@@ -23266,19 +23266,19 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E11" t="n">
-        <v>258.0352877144846</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F11" t="n">
-        <v>297.2231503515663</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>319.1679423953334</v>
+        <v>421.0912096171361</v>
       </c>
       <c r="H11" t="n">
-        <v>248.7294086017424</v>
+        <v>338.5034223707061</v>
       </c>
       <c r="I11" t="n">
-        <v>211.2869925855227</v>
+        <v>109.3637253637201</v>
       </c>
       <c r="J11" t="n">
         <v>8.713999329422307</v>
@@ -23305,10 +23305,10 @@
         <v>0.05499638472406332</v>
       </c>
       <c r="R11" t="n">
-        <v>141.2290200343808</v>
+        <v>51.45500626541705</v>
       </c>
       <c r="S11" t="n">
-        <v>210.4435150733009</v>
+        <v>108.5202478514983</v>
       </c>
       <c r="T11" t="n">
         <v>214.5749735244659</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>188.0127573810344</v>
+        <v>86.08949015923176</v>
       </c>
       <c r="C12" t="n">
-        <v>203.8424276152394</v>
+        <v>114.0684138462756</v>
       </c>
       <c r="D12" t="n">
         <v>172.0989423795122</v>
@@ -23348,19 +23348,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F12" t="n">
-        <v>105.5608499239076</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>58.50883939253694</v>
+        <v>160.4321066143396</v>
       </c>
       <c r="H12" t="n">
-        <v>30.19789075885717</v>
+        <v>132.1211579806599</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>96.88303733070427</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>26.3907454586459</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.2038168143979</v>
+        <v>16.28054959259518</v>
       </c>
       <c r="S12" t="n">
         <v>197.1961324302366</v>
@@ -23405,7 +23405,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y12" t="n">
-        <v>242.8962664135933</v>
+        <v>140.9729991917906</v>
       </c>
     </row>
     <row r="13">
@@ -23454,13 +23454,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.65773652639939</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>30.74918469704988</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.26813245900784</v>
+        <v>110.7208828302527</v>
       </c>
       <c r="R13" t="n">
         <v>199.081979577582</v>
@@ -23484,7 +23484,7 @@
         <v>217.7416213385031</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.5502738121359</v>
+        <v>156.6906022174418</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.5563275970632</v>
+        <v>274.7823138280994</v>
       </c>
       <c r="C14" t="n">
         <v>231.6738522524058</v>
@@ -23503,19 +23503,19 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E14" t="n">
-        <v>359.9585549362873</v>
+        <v>258.0352877144846</v>
       </c>
       <c r="F14" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>331.3171958481723</v>
+        <v>421.0912096171361</v>
       </c>
       <c r="H14" t="n">
-        <v>236.5801551489034</v>
+        <v>338.5034223707061</v>
       </c>
       <c r="I14" t="n">
-        <v>109.3637253637201</v>
+        <v>211.2869925855227</v>
       </c>
       <c r="J14" t="n">
         <v>8.713999329422307</v>
@@ -23563,7 +23563,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y14" t="n">
-        <v>377.9289763951821</v>
+        <v>276.0057091733794</v>
       </c>
     </row>
     <row r="15">
@@ -23585,7 +23585,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F15" t="n">
-        <v>173.9843481253239</v>
+        <v>72.06108090352123</v>
       </c>
       <c r="G15" t="n">
         <v>160.4321066143396</v>
@@ -23624,22 +23624,22 @@
         <v>118.2038168143979</v>
       </c>
       <c r="S15" t="n">
-        <v>95.27286520843387</v>
+        <v>197.1961324302366</v>
       </c>
       <c r="T15" t="n">
         <v>227.7459611595986</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6112084361161</v>
+        <v>147.6879412143134</v>
       </c>
       <c r="V15" t="n">
-        <v>147.3766579583697</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W15" t="n">
-        <v>181.3259895411284</v>
+        <v>193.4752429939674</v>
       </c>
       <c r="X15" t="n">
-        <v>140.2590499419993</v>
+        <v>128.1097964891603</v>
       </c>
       <c r="Y15" t="n">
         <v>242.8962664135933</v>
@@ -23691,13 +23691,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.65773652639939</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>30.74918469704988</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.26813245900784</v>
+        <v>110.7208828302527</v>
       </c>
       <c r="R16" t="n">
         <v>199.081979577582</v>
@@ -23715,7 +23715,7 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W16" t="n">
-        <v>294.4857951463376</v>
+        <v>235.6261235516435</v>
       </c>
       <c r="X16" t="n">
         <v>217.7416213385031</v>
@@ -23740,19 +23740,19 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E17" t="n">
-        <v>359.9585549362873</v>
+        <v>249.5702094064284</v>
       </c>
       <c r="F17" t="n">
-        <v>301.9163628306694</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
         <v>310.7028640872772</v>
       </c>
       <c r="H17" t="n">
-        <v>228.1150768408472</v>
+        <v>338.5034223707061</v>
       </c>
       <c r="I17" t="n">
-        <v>100.8986470556639</v>
+        <v>100.8986470556638</v>
       </c>
       <c r="J17" t="n">
         <v>8.713999329422307</v>
@@ -23779,7 +23779,7 @@
         <v>0.05499638472406332</v>
       </c>
       <c r="R17" t="n">
-        <v>141.2290200343808</v>
+        <v>43.99896529168112</v>
       </c>
       <c r="S17" t="n">
         <v>210.4435150733009</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.97376207169822</v>
+        <v>20.97376207169816</v>
       </c>
       <c r="S18" t="n">
-        <v>86.80778690037768</v>
+        <v>86.80778690037766</v>
       </c>
       <c r="T18" t="n">
         <v>117.3576156297397</v>
       </c>
       <c r="U18" t="n">
-        <v>139.2228629062572</v>
+        <v>249.6112084361161</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2492567629311</v>
+        <v>172.8609112330722</v>
       </c>
       <c r="X18" t="n">
         <v>230.033063710963</v>
@@ -23901,7 +23901,7 @@
         <v>136.4317244039137</v>
       </c>
       <c r="F19" t="n">
-        <v>72.90886877108196</v>
+        <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
         <v>168.7457315505393</v>
@@ -23937,7 +23937,7 @@
         <v>110.7208828302527</v>
       </c>
       <c r="R19" t="n">
-        <v>199.081979577582</v>
+        <v>140.2223079828878</v>
       </c>
       <c r="S19" t="n">
         <v>235.1761702616857</v>
@@ -23977,13 +23977,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>359.9585549362873</v>
+        <v>262.7285001935876</v>
       </c>
       <c r="F20" t="n">
-        <v>288.7580720435105</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.0912096171361</v>
+        <v>310.7028640872771</v>
       </c>
       <c r="H20" t="n">
         <v>338.5034223707061</v>
@@ -24025,16 +24025,16 @@
         <v>214.5749735244659</v>
       </c>
       <c r="U20" t="n">
-        <v>151.4716298374706</v>
+        <v>248.7016845801699</v>
       </c>
       <c r="V20" t="n">
-        <v>202.9160964711646</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W20" t="n">
-        <v>215.0033799494349</v>
+        <v>215.0033799494344</v>
       </c>
       <c r="X20" t="n">
-        <v>348.8168793035129</v>
+        <v>238.428533773654</v>
       </c>
       <c r="Y20" t="n">
         <v>377.9289763951821</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>188.0127573810344</v>
+        <v>77.62441185117552</v>
       </c>
       <c r="C21" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
-        <v>74.86888763681289</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
         <v>187.4605452976028</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.2038168143979</v>
+        <v>7.815471284538944</v>
       </c>
       <c r="S21" t="n">
-        <v>86.80778690037809</v>
+        <v>99.96607768753682</v>
       </c>
       <c r="T21" t="n">
         <v>227.7459611595986</v>
       </c>
       <c r="U21" t="n">
-        <v>139.2228629062576</v>
+        <v>249.6112084361161</v>
       </c>
       <c r="V21" t="n">
-        <v>138.9115796503139</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W21" t="n">
-        <v>283.2492567629311</v>
+        <v>172.8609112330722</v>
       </c>
       <c r="X21" t="n">
         <v>230.033063710963</v>
@@ -24144,7 +24144,7 @@
         <v>168.7457315505393</v>
       </c>
       <c r="H22" t="n">
-        <v>163.2330828547056</v>
+        <v>104.3734112600115</v>
       </c>
       <c r="I22" t="n">
         <v>153.0404982131692</v>
@@ -24174,7 +24174,7 @@
         <v>110.7208828302527</v>
       </c>
       <c r="R22" t="n">
-        <v>140.2223079828878</v>
+        <v>199.081979577582</v>
       </c>
       <c r="S22" t="n">
         <v>235.1761702616857</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>228.7656855172022</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C23" t="n">
         <v>333.5971194742085</v>
@@ -24214,16 +24214,16 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E23" t="n">
-        <v>240.3541573923459</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>285.3005675372751</v>
+        <v>421.0912096171361</v>
       </c>
       <c r="H23" t="n">
-        <v>202.7127802908452</v>
+        <v>338.5034223707061</v>
       </c>
       <c r="I23" t="n">
         <v>211.2869925855227</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.05499638472406332</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>141.2290200343808</v>
@@ -24262,19 +24262,19 @@
         <v>214.5749735244659</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7016845801699</v>
+        <v>112.911042500309</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W23" t="n">
-        <v>325.3917254792934</v>
+        <v>189.6010833994324</v>
       </c>
       <c r="X23" t="n">
-        <v>348.8168793035129</v>
+        <v>213.026237223652</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.9289763951821</v>
+        <v>258.3795752359646</v>
       </c>
     </row>
     <row r="24">
@@ -24299,7 +24299,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>24.6414645344787</v>
+        <v>160.4321066143396</v>
       </c>
       <c r="H24" t="n">
         <v>132.1211579806599</v>
@@ -24335,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>195.795551700693</v>
+        <v>61.40549035037563</v>
       </c>
       <c r="T24" t="n">
         <v>91.95531907973768</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6112084361161</v>
+        <v>248.2106277065725</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24350,10 +24350,10 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X24" t="n">
-        <v>230.033063710963</v>
+        <v>94.24242163110205</v>
       </c>
       <c r="Y24" t="n">
-        <v>107.1056243337324</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="25">
@@ -24375,7 +24375,7 @@
         <v>136.4317244039137</v>
       </c>
       <c r="F25" t="n">
-        <v>131.7685403657761</v>
+        <v>72.90886877108196</v>
       </c>
       <c r="G25" t="n">
         <v>168.7457315505393</v>
@@ -24417,7 +24417,7 @@
         <v>235.1761702616857</v>
       </c>
       <c r="T25" t="n">
-        <v>157.1390991936161</v>
+        <v>215.9987707883102</v>
       </c>
       <c r="U25" t="n">
         <v>291.1929263587522</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>228.7656855172022</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
-        <v>197.8064773943475</v>
+        <v>213.992721930267</v>
       </c>
       <c r="D26" t="n">
-        <v>199.5273580993061</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E26" t="n">
         <v>359.9585549362873</v>
@@ -24457,10 +24457,10 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.0912096171361</v>
+        <v>285.3005675372751</v>
       </c>
       <c r="H26" t="n">
-        <v>338.5034223707061</v>
+        <v>202.7127802908452</v>
       </c>
       <c r="I26" t="n">
         <v>75.49635050566181</v>
@@ -24524,10 +24524,10 @@
         <v>52.22211530117352</v>
       </c>
       <c r="C27" t="n">
-        <v>68.05178553537846</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
-        <v>52.49454483557072</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E27" t="n">
         <v>187.4605452976028</v>
@@ -24536,7 +24536,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.4321066143396</v>
+        <v>24.6414645344787</v>
       </c>
       <c r="H27" t="n">
         <v>132.1211579806599</v>
@@ -24587,7 +24587,7 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X27" t="n">
-        <v>230.033063710963</v>
+        <v>110.4286661670215</v>
       </c>
       <c r="Y27" t="n">
         <v>107.1056243337324</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>116.315649375433</v>
+        <v>175.175320970127</v>
       </c>
       <c r="C28" t="n">
         <v>165.5867821959998</v>
@@ -24663,7 +24663,7 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W28" t="n">
-        <v>294.4857951463376</v>
+        <v>235.6261235516435</v>
       </c>
       <c r="X28" t="n">
         <v>217.7416213385031</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>228.7656855172022</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>197.8064773943475</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
         <v>319.1317556432476</v>
@@ -24727,7 +24727,7 @@
         <v>0.05499638472406332</v>
       </c>
       <c r="R29" t="n">
-        <v>141.2290200343808</v>
+        <v>5.438377954519893</v>
       </c>
       <c r="S29" t="n">
         <v>210.4435150733009</v>
@@ -24736,13 +24736,13 @@
         <v>214.5749735244659</v>
       </c>
       <c r="U29" t="n">
-        <v>129.0972870362284</v>
+        <v>112.911042500309</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>177.5137999211622</v>
       </c>
       <c r="W29" t="n">
-        <v>189.6010833994324</v>
+        <v>205.7873279353519</v>
       </c>
       <c r="X29" t="n">
         <v>348.8168793035129</v>
@@ -24761,19 +24761,19 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
-        <v>68.05178553537846</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D30" t="n">
-        <v>36.30830029965128</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E30" t="n">
-        <v>51.6699032177419</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F30" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>40.82770907039814</v>
+        <v>160.4321066143396</v>
       </c>
       <c r="H30" t="n">
         <v>132.1211579806599</v>
@@ -24812,16 +24812,16 @@
         <v>197.1961324302366</v>
       </c>
       <c r="T30" t="n">
-        <v>227.7459611595986</v>
+        <v>91.95531907973768</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6112084361161</v>
+        <v>130.0068108921747</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>113.5092831003114</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>147.4586146830702</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
@@ -24919,7 +24919,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C32" t="n">
-        <v>333.5971194742085</v>
+        <v>213.992721930267</v>
       </c>
       <c r="D32" t="n">
         <v>319.1317556432476</v>
@@ -24928,16 +24928,16 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>279.5420200294276</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>285.3005675372751</v>
+        <v>421.0912096171361</v>
       </c>
       <c r="H32" t="n">
-        <v>202.7127802908452</v>
+        <v>338.5034223707061</v>
       </c>
       <c r="I32" t="n">
-        <v>75.49635050566181</v>
+        <v>211.2869925855227</v>
       </c>
       <c r="J32" t="n">
         <v>8.713999329422307</v>
@@ -24964,7 +24964,7 @@
         <v>0.05499638472406332</v>
       </c>
       <c r="R32" t="n">
-        <v>141.2290200343808</v>
+        <v>5.438377954519893</v>
       </c>
       <c r="S32" t="n">
         <v>210.4435150733009</v>
@@ -24973,10 +24973,10 @@
         <v>214.5749735244659</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7016845801699</v>
+        <v>112.911042500309</v>
       </c>
       <c r="V32" t="n">
-        <v>313.3044420010231</v>
+        <v>177.5137999211622</v>
       </c>
       <c r="W32" t="n">
         <v>325.3917254792934</v>
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>52.22211530117352</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C33" t="n">
-        <v>68.05178553537846</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D33" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
-        <v>67.85614775366135</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F33" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>24.6414645344787</v>
+        <v>40.82770907039814</v>
       </c>
       <c r="H33" t="n">
         <v>132.1211579806599</v>
@@ -25052,13 +25052,13 @@
         <v>227.7459611595986</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6112084361161</v>
+        <v>113.8205663562552</v>
       </c>
       <c r="V33" t="n">
-        <v>249.2999251801724</v>
+        <v>113.5092831003114</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2492567629311</v>
+        <v>147.4586146830702</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
@@ -25122,7 +25122,7 @@
         <v>110.7208828302527</v>
       </c>
       <c r="R34" t="n">
-        <v>140.2223079828879</v>
+        <v>199.081979577582</v>
       </c>
       <c r="S34" t="n">
         <v>235.1761702616857</v>
@@ -25131,7 +25131,7 @@
         <v>215.9987707883102</v>
       </c>
       <c r="U34" t="n">
-        <v>291.1929263587522</v>
+        <v>232.333254764058</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>364.5563275970632</v>
+        <v>254.1679820672043</v>
       </c>
       <c r="C35" t="n">
-        <v>333.5971194742085</v>
+        <v>223.2087739443496</v>
       </c>
       <c r="D35" t="n">
         <v>319.1317556432476</v>
@@ -25174,10 +25174,10 @@
         <v>338.5034223707061</v>
       </c>
       <c r="I35" t="n">
-        <v>211.2869925855227</v>
+        <v>100.8986470556638</v>
       </c>
       <c r="J35" t="n">
-        <v>8.713999329422307</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0.05499638472406332</v>
       </c>
       <c r="R35" t="n">
-        <v>43.99896529168112</v>
+        <v>141.2290200343808</v>
       </c>
       <c r="S35" t="n">
-        <v>100.055169543442</v>
+        <v>210.4435150733009</v>
       </c>
       <c r="T35" t="n">
-        <v>104.186627994607</v>
+        <v>214.5749735244659</v>
       </c>
       <c r="U35" t="n">
-        <v>138.313339050311</v>
+        <v>248.7016845801699</v>
       </c>
       <c r="V35" t="n">
-        <v>313.3044420010231</v>
+        <v>224.7883865877458</v>
       </c>
       <c r="W35" t="n">
         <v>325.3917254792934</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>20.97376207169816</v>
+        <v>118.2038168143979</v>
       </c>
       <c r="S36" t="n">
-        <v>197.1961324302366</v>
+        <v>86.80778690037766</v>
       </c>
       <c r="T36" t="n">
         <v>227.7459611595986</v>
@@ -25292,16 +25292,16 @@
         <v>249.6112084361161</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>138.9115796503135</v>
       </c>
       <c r="W36" t="n">
         <v>172.8609112330722</v>
       </c>
       <c r="X36" t="n">
-        <v>119.6447181811041</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>132.5079208837344</v>
+        <v>145.6662116708937</v>
       </c>
     </row>
     <row r="37">
@@ -25335,10 +25335,10 @@
         <v>153.0404982131692</v>
       </c>
       <c r="J37" t="n">
-        <v>69.5651717403924</v>
+        <v>97.73275032999754</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>30.69209300508902</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>294.4857951463376</v>
       </c>
       <c r="X37" t="n">
-        <v>217.7416213385031</v>
+        <v>158.8819497438089</v>
       </c>
       <c r="Y37" t="n">
         <v>215.5502738121359</v>
@@ -25399,10 +25399,10 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E38" t="n">
-        <v>249.5702094064284</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>288.7580720435101</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
         <v>421.0912096171361</v>
@@ -25441,25 +25441,25 @@
         <v>141.2290200343808</v>
       </c>
       <c r="S38" t="n">
-        <v>210.4435150733009</v>
+        <v>113.2134603306012</v>
       </c>
       <c r="T38" t="n">
-        <v>214.5749735244659</v>
+        <v>104.186627994607</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7016845801699</v>
+        <v>138.313339050311</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>228.1616707365937</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>238.428533773654</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
-        <v>377.9289763951821</v>
+        <v>267.5406308653232</v>
       </c>
     </row>
     <row r="39">
@@ -25484,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>50.04376108448074</v>
+        <v>160.4321066143396</v>
       </c>
       <c r="H39" t="n">
-        <v>21.73281245080096</v>
+        <v>132.1211579806599</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>96.88303733070427</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>26.3907454586459</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>33.85919933118946</v>
+        <v>20.97376207169816</v>
       </c>
       <c r="S39" t="n">
         <v>197.1961324302366</v>
@@ -25529,13 +25529,13 @@
         <v>249.6112084361161</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>138.9115796503135</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2492567629311</v>
+        <v>172.8609112330722</v>
       </c>
       <c r="X39" t="n">
-        <v>230.033063710963</v>
+        <v>119.6447181811041</v>
       </c>
       <c r="Y39" t="n">
         <v>242.8962664135933</v>
@@ -25557,7 +25557,7 @@
         <v>141.3987433365328</v>
       </c>
       <c r="E40" t="n">
-        <v>136.4317244039137</v>
+        <v>77.57205280921957</v>
       </c>
       <c r="F40" t="n">
         <v>131.7685403657761</v>
@@ -25605,7 +25605,7 @@
         <v>215.9987707883102</v>
       </c>
       <c r="U40" t="n">
-        <v>232.333254764058</v>
+        <v>291.1929263587522</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7823138280994</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>231.6738522524058</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
-        <v>217.2084884214449</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E41" t="n">
-        <v>258.0352877144846</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>399.146417573369</v>
+        <v>309.3724038044053</v>
       </c>
       <c r="G41" t="n">
         <v>421.0912096171361</v>
@@ -25678,19 +25678,19 @@
         <v>141.2290200343808</v>
       </c>
       <c r="S41" t="n">
-        <v>210.4435150733009</v>
+        <v>108.5202478514983</v>
       </c>
       <c r="T41" t="n">
         <v>214.5749735244659</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7016845801699</v>
+        <v>146.7784173583672</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W41" t="n">
-        <v>325.3917254792934</v>
+        <v>223.4684582574907</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
@@ -25709,28 +25709,28 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>203.8424276152394</v>
+        <v>101.9191603934367</v>
       </c>
       <c r="D42" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E42" t="n">
-        <v>187.4605452976028</v>
+        <v>85.53727807580015</v>
       </c>
       <c r="F42" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>58.50883939253694</v>
+        <v>160.4321066143396</v>
       </c>
       <c r="H42" t="n">
-        <v>30.19789075885717</v>
+        <v>132.1211579806599</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>96.88303733070427</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>26.3907454586459</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.78031861298156</v>
+        <v>118.2038168143979</v>
       </c>
       <c r="S42" t="n">
         <v>197.1961324302366</v>
       </c>
       <c r="T42" t="n">
-        <v>227.7459611595986</v>
+        <v>137.9719473906349</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6112084361161</v>
+        <v>147.6879412143134</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25803,7 +25803,7 @@
         <v>168.7457315505393</v>
       </c>
       <c r="H43" t="n">
-        <v>163.2330828547056</v>
+        <v>104.3734112600115</v>
       </c>
       <c r="I43" t="n">
         <v>153.0404982131692</v>
@@ -25824,13 +25824,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.65773652639939</v>
       </c>
       <c r="P43" t="n">
         <v>30.74918469704988</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.51894776195796</v>
+        <v>110.7208828302527</v>
       </c>
       <c r="R43" t="n">
         <v>199.081979577582</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>364.5563275970632</v>
+        <v>262.6330603752605</v>
       </c>
       <c r="C44" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>217.2084884214449</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E44" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>297.2231503515663</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>331.3171958481723</v>
+        <v>319.1679423953334</v>
       </c>
       <c r="H44" t="n">
-        <v>236.5801551489034</v>
+        <v>338.5034223707061</v>
       </c>
       <c r="I44" t="n">
         <v>211.2869925855227</v>
@@ -25915,7 +25915,7 @@
         <v>141.2290200343808</v>
       </c>
       <c r="S44" t="n">
-        <v>210.4435150733009</v>
+        <v>120.6695013043372</v>
       </c>
       <c r="T44" t="n">
         <v>214.5749735244659</v>
@@ -25930,7 +25930,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X44" t="n">
-        <v>348.8168793035129</v>
+        <v>246.8936120817102</v>
       </c>
       <c r="Y44" t="n">
         <v>377.9289763951821</v>
@@ -25967,7 +25967,7 @@
         <v>96.88303733070427</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>26.3907454586459</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26000,13 +26000,13 @@
         <v>125.8226939377959</v>
       </c>
       <c r="U45" t="n">
-        <v>186.2279401257983</v>
+        <v>249.6112084361161</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
-        <v>283.2492567629311</v>
+        <v>193.4752429939674</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
@@ -26034,7 +26034,7 @@
         <v>136.4317244039137</v>
       </c>
       <c r="F46" t="n">
-        <v>131.7685403657761</v>
+        <v>72.90886877108196</v>
       </c>
       <c r="G46" t="n">
         <v>168.7457315505393</v>
@@ -26061,13 +26061,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.65773652639939</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>30.74918469704988</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.26813245900784</v>
+        <v>110.7208828302527</v>
       </c>
       <c r="R46" t="n">
         <v>199.081979577582</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>412819.3304065714</v>
+        <v>412819.3304065717</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>429449.9169306004</v>
+        <v>429449.9169306005</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>429449.9169306004</v>
+        <v>429449.9169306005</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>429449.9169306005</v>
+        <v>429449.9169306006</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>412819.3304065717</v>
+        <v>412819.3304065715</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>412819.3304065717</v>
+        <v>412819.3304065716</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>407664.789254009</v>
+        <v>407664.7892540091</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>407664.789254009</v>
+        <v>407664.7892540091</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>713195.753504917</v>
       </c>
       <c r="C2" t="n">
-        <v>713195.7535049169</v>
+        <v>713195.753504917</v>
       </c>
       <c r="D2" t="n">
-        <v>713195.7535049169</v>
+        <v>713195.753504917</v>
       </c>
       <c r="E2" t="n">
-        <v>295872.5509366394</v>
+        <v>295872.5509366395</v>
       </c>
       <c r="F2" t="n">
-        <v>295872.5509366394</v>
+        <v>295872.5509366395</v>
       </c>
       <c r="G2" t="n">
-        <v>298878.4426812977</v>
+        <v>298878.4426812978</v>
       </c>
       <c r="H2" t="n">
-        <v>298878.4426812977</v>
+        <v>298878.4426812978</v>
       </c>
       <c r="I2" t="n">
+        <v>307898.6254505868</v>
+      </c>
+      <c r="J2" t="n">
         <v>307898.6254505869</v>
-      </c>
-      <c r="J2" t="n">
-        <v>307898.625450587</v>
       </c>
       <c r="K2" t="n">
         <v>307898.6254505869</v>
       </c>
       <c r="L2" t="n">
-        <v>307898.6254505869</v>
+        <v>307898.6254505868</v>
       </c>
       <c r="M2" t="n">
         <v>298878.4426812978</v>
       </c>
       <c r="N2" t="n">
-        <v>298878.4426812977</v>
+        <v>298878.4426812978</v>
       </c>
       <c r="O2" t="n">
-        <v>295872.5509366394</v>
+        <v>295872.5509366395</v>
       </c>
       <c r="P2" t="n">
-        <v>295872.5509366394</v>
+        <v>295872.5509366395</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6755.004100873206</v>
+        <v>6755.004100873084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>19069.33197529548</v>
+        <v>19069.33197529542</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,13 +26435,13 @@
         <v>14396.89020044101</v>
       </c>
       <c r="H4" t="n">
-        <v>14396.89020044096</v>
+        <v>14396.89020044102</v>
       </c>
       <c r="I4" t="n">
         <v>19018.9730234511</v>
       </c>
       <c r="J4" t="n">
-        <v>19018.9730234511</v>
+        <v>19018.97302345111</v>
       </c>
       <c r="K4" t="n">
         <v>19018.97302345111</v>
@@ -26487,7 +26487,7 @@
         <v>20263.12849872008</v>
       </c>
       <c r="H5" t="n">
-        <v>20263.12849872005</v>
+        <v>20263.12849872008</v>
       </c>
       <c r="I5" t="n">
         <v>21807.5881289602</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136809.9474573872</v>
+        <v>136763.0029164544</v>
       </c>
       <c r="C6" t="n">
-        <v>136809.9474573871</v>
+        <v>136763.0029164544</v>
       </c>
       <c r="D6" t="n">
-        <v>136809.9474573871</v>
+        <v>136763.0029164544</v>
       </c>
       <c r="E6" t="n">
-        <v>-266970.8006603526</v>
+        <v>-280928.5186202279</v>
       </c>
       <c r="F6" t="n">
-        <v>262880.0283386719</v>
+        <v>248922.3103787966</v>
       </c>
       <c r="G6" t="n">
-        <v>261898.272994073</v>
+        <v>248040.7514256864</v>
       </c>
       <c r="H6" t="n">
-        <v>264218.4239821367</v>
+        <v>250360.90241375</v>
       </c>
       <c r="I6" t="n">
-        <v>260317.0601973024</v>
+        <v>246760.211387892</v>
       </c>
       <c r="J6" t="n">
-        <v>267072.0642981756</v>
+        <v>253515.2154887651</v>
       </c>
       <c r="K6" t="n">
-        <v>267072.0642981756</v>
+        <v>253515.2154887651</v>
       </c>
       <c r="L6" t="n">
-        <v>267072.0642981756</v>
+        <v>253515.2154887651</v>
       </c>
       <c r="M6" t="n">
-        <v>245149.0920068412</v>
+        <v>231291.5704384545</v>
       </c>
       <c r="N6" t="n">
-        <v>264218.4239821367</v>
+        <v>250360.90241375</v>
       </c>
       <c r="O6" t="n">
-        <v>262880.0283386718</v>
+        <v>248922.3103787967</v>
       </c>
       <c r="P6" t="n">
-        <v>262880.0283386719</v>
+        <v>248922.3103787966</v>
       </c>
     </row>
   </sheetData>
@@ -26807,7 +26807,7 @@
         <v>110.3883455298589</v>
       </c>
       <c r="H4" t="n">
-        <v>110.3883455298585</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="I4" t="n">
         <v>135.7906420798609</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.40229655000247</v>
+        <v>25.40229655000201</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>76.52097067180095</v>
+        <v>76.52097067180068</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>309.7942918327545</v>
       </c>
       <c r="N12" t="n">
-        <v>244.7451795299829</v>
+        <v>294.0105211436777</v>
       </c>
       <c r="O12" t="n">
-        <v>310.4702747218026</v>
+        <v>261.2049331081079</v>
       </c>
       <c r="P12" t="n">
         <v>255.3254072556655</v>
@@ -32080,7 +32080,7 @@
         <v>126.3256143528479</v>
       </c>
       <c r="K15" t="n">
-        <v>201.5931045</v>
+        <v>215.9105957768348</v>
       </c>
       <c r="L15" t="n">
         <v>290.3184410444145</v>
@@ -32092,7 +32092,7 @@
         <v>294.0105211436777</v>
       </c>
       <c r="O15" t="n">
-        <v>261.2049331081079</v>
+        <v>246.887441831273</v>
       </c>
       <c r="P15" t="n">
         <v>255.3254072556655</v>
@@ -32323,10 +32323,10 @@
         <v>290.3184410444145</v>
       </c>
       <c r="M18" t="n">
-        <v>318.2593701408107</v>
+        <v>263.607393028772</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8236223396951</v>
+        <v>302.4755994517338</v>
       </c>
       <c r="O18" t="n">
         <v>318.1275521934421</v>
@@ -32484,7 +32484,7 @@
         <v>438.804633316689</v>
       </c>
       <c r="N20" t="n">
-        <v>445.9049510398727</v>
+        <v>445.9049510398731</v>
       </c>
       <c r="O20" t="n">
         <v>421.0554008912021</v>
@@ -32560,10 +32560,10 @@
         <v>290.3184410444145</v>
       </c>
       <c r="M21" t="n">
-        <v>263.6073930287707</v>
+        <v>263.607393028772</v>
       </c>
       <c r="N21" t="n">
-        <v>302.4755994517334</v>
+        <v>302.4755994517339</v>
       </c>
       <c r="O21" t="n">
         <v>318.1275521934421</v>
@@ -32800,7 +32800,7 @@
         <v>338.7879272626163</v>
       </c>
       <c r="N24" t="n">
-        <v>327.8778960017359</v>
+        <v>327.877896001736</v>
       </c>
       <c r="O24" t="n">
         <v>318.1275521934421</v>
@@ -33274,7 +33274,7 @@
         <v>338.7879272626163</v>
       </c>
       <c r="N30" t="n">
-        <v>327.8778960017359</v>
+        <v>327.877896001736</v>
       </c>
       <c r="O30" t="n">
         <v>318.1275521934421</v>
@@ -33739,7 +33739,7 @@
         <v>126.3256143528479</v>
       </c>
       <c r="K36" t="n">
-        <v>201.5931045</v>
+        <v>215.9105957768348</v>
       </c>
       <c r="L36" t="n">
         <v>290.3184410444145</v>
@@ -33748,7 +33748,7 @@
         <v>318.2593701408107</v>
       </c>
       <c r="N36" t="n">
-        <v>262.1411136165299</v>
+        <v>247.8236223396951</v>
       </c>
       <c r="O36" t="n">
         <v>318.1275521934421</v>
@@ -33979,10 +33979,10 @@
         <v>215.9105957768348</v>
       </c>
       <c r="L39" t="n">
-        <v>235.6664639323757</v>
+        <v>290.3184410444145</v>
       </c>
       <c r="M39" t="n">
-        <v>318.2593701408107</v>
+        <v>263.607393028772</v>
       </c>
       <c r="N39" t="n">
         <v>302.4755994517338</v>
@@ -34219,10 +34219,10 @@
         <v>290.3184410444145</v>
       </c>
       <c r="M42" t="n">
-        <v>309.7942918327545</v>
+        <v>246.2114589422249</v>
       </c>
       <c r="N42" t="n">
-        <v>230.427688253148</v>
+        <v>294.0105211436777</v>
       </c>
       <c r="O42" t="n">
         <v>310.4702747218026</v>
@@ -34453,7 +34453,7 @@
         <v>215.9105957768348</v>
       </c>
       <c r="L45" t="n">
-        <v>290.3184410444145</v>
+        <v>226.7356081538849</v>
       </c>
       <c r="M45" t="n">
         <v>309.7942918327545</v>
@@ -34462,7 +34462,7 @@
         <v>294.0105211436777</v>
       </c>
       <c r="O45" t="n">
-        <v>246.887441831273</v>
+        <v>310.4702747218026</v>
       </c>
       <c r="P45" t="n">
         <v>255.3254072556655</v>
@@ -35415,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>94.00886904210471</v>
+        <v>49.55444753054445</v>
       </c>
       <c r="M11" t="n">
         <v>101.9232672218027</v>
@@ -35427,7 +35427,7 @@
         <v>84.53676668698523</v>
       </c>
       <c r="P11" t="n">
-        <v>21.18278690757393</v>
+        <v>65.63720841913415</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>101.9232672218027</v>
       </c>
       <c r="N12" t="n">
+        <v>101.9232672218027</v>
+      </c>
+      <c r="O12" t="n">
         <v>52.65792560810789</v>
-      </c>
-      <c r="O12" t="n">
-        <v>101.9232672218027</v>
       </c>
       <c r="P12" t="n">
         <v>59.38783641220746</v>
@@ -35649,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>44.45442151156026</v>
       </c>
       <c r="L14" t="n">
-        <v>94.00886904210471</v>
+        <v>49.55444753054445</v>
       </c>
       <c r="M14" t="n">
         <v>101.9232672218027</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>14.31749127683483</v>
       </c>
       <c r="L15" t="n">
         <v>87.6826606163485</v>
@@ -35740,7 +35740,7 @@
         <v>101.9232672218027</v>
       </c>
       <c r="O15" t="n">
-        <v>52.65792560810789</v>
+        <v>38.34043433127304</v>
       </c>
       <c r="P15" t="n">
         <v>59.38783641220746</v>
@@ -35892,7 +35892,7 @@
         <v>49.55444753054445</v>
       </c>
       <c r="M17" t="n">
-        <v>110.3883455298589</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="N17" t="n">
         <v>110.3883455298589</v>
@@ -35901,7 +35901,7 @@
         <v>84.53676668698523</v>
       </c>
       <c r="P17" t="n">
-        <v>82.22534166926447</v>
+        <v>90.69041997732072</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>87.6826606163485</v>
       </c>
       <c r="M18" t="n">
+        <v>55.73636841782013</v>
+      </c>
+      <c r="N18" t="n">
         <v>110.3883455298589</v>
-      </c>
-      <c r="N18" t="n">
-        <v>55.73636841782013</v>
       </c>
       <c r="O18" t="n">
         <v>109.5805446934421</v>
@@ -36123,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>69.50763306974687</v>
       </c>
       <c r="L20" t="n">
-        <v>110.3883455298585</v>
+        <v>49.55444753054445</v>
       </c>
       <c r="M20" t="n">
-        <v>110.3883455298585</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="N20" t="n">
-        <v>110.3883455298585</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="O20" t="n">
-        <v>84.74542344936098</v>
+        <v>84.53676668698523</v>
       </c>
       <c r="P20" t="n">
         <v>21.18278690757393</v>
@@ -36208,10 +36208,10 @@
         <v>87.6826606163485</v>
       </c>
       <c r="M21" t="n">
-        <v>55.73636841781887</v>
+        <v>55.73636841782022</v>
       </c>
       <c r="N21" t="n">
-        <v>110.3883455298585</v>
+        <v>110.3883455298589</v>
       </c>
       <c r="O21" t="n">
         <v>109.5805446934421</v>
@@ -36360,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>80.28009235647676</v>
       </c>
       <c r="L23" t="n">
+        <v>80.09514761960061</v>
+      </c>
+      <c r="M23" t="n">
         <v>135.7906420798609</v>
-      </c>
-      <c r="M23" t="n">
-        <v>109.1213645832016</v>
       </c>
       <c r="N23" t="n">
         <v>135.7906420798609</v>
       </c>
       <c r="O23" t="n">
-        <v>135.7906420798609</v>
+        <v>84.53676668698523</v>
       </c>
       <c r="P23" t="n">
         <v>21.18278690757393</v>
@@ -36442,13 +36442,13 @@
         <v>14.31749127683483</v>
       </c>
       <c r="L24" t="n">
-        <v>87.68266061634853</v>
+        <v>87.6826606163485</v>
       </c>
       <c r="M24" t="n">
         <v>130.9169026516645</v>
       </c>
       <c r="N24" t="n">
-        <v>135.7906420798609</v>
+        <v>135.790642079861</v>
       </c>
       <c r="O24" t="n">
         <v>109.5805446934421</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>80.28009235647676</v>
       </c>
       <c r="L26" t="n">
-        <v>135.7906420798609</v>
+        <v>55.69715490307542</v>
       </c>
       <c r="M26" t="n">
-        <v>134.5236611332036</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="N26" t="n">
         <v>110.3883455298589</v>
       </c>
       <c r="O26" t="n">
-        <v>135.7906420798609</v>
+        <v>84.53676668698523</v>
       </c>
       <c r="P26" t="n">
-        <v>21.18278690757393</v>
+        <v>104.8504510321594</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>80.28009235647676</v>
+        <v>0.1866051796912355</v>
       </c>
       <c r="L29" t="n">
         <v>135.7906420798609</v>
       </c>
       <c r="M29" t="n">
-        <v>105.4974441696027</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="N29" t="n">
         <v>110.3883455298589</v>
@@ -36849,7 +36849,7 @@
         <v>84.53676668698523</v>
       </c>
       <c r="P29" t="n">
-        <v>21.18278690757393</v>
+        <v>104.8504510321594</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>130.9169026516645</v>
       </c>
       <c r="N30" t="n">
-        <v>135.7906420798609</v>
+        <v>135.790642079861</v>
       </c>
       <c r="O30" t="n">
         <v>109.5805446934421</v>
@@ -37071,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>80.28009235647676</v>
       </c>
       <c r="L32" t="n">
         <v>49.55444753054445</v>
       </c>
       <c r="M32" t="n">
-        <v>111.6898950079327</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="N32" t="n">
-        <v>135.7906420798609</v>
+        <v>116.5310529023899</v>
       </c>
       <c r="O32" t="n">
-        <v>135.7906420798609</v>
+        <v>84.53676668698523</v>
       </c>
       <c r="P32" t="n">
         <v>104.8504510321594</v>
@@ -37308,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>61.0425547616906</v>
+        <v>69.50763306974679</v>
       </c>
       <c r="L35" t="n">
         <v>49.55444753054445</v>
       </c>
       <c r="M35" t="n">
-        <v>110.3883455298589</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="N35" t="n">
         <v>110.3883455298589</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>14.31749127683483</v>
       </c>
       <c r="L36" t="n">
         <v>87.6826606163485</v>
@@ -37396,7 +37396,7 @@
         <v>110.3883455298589</v>
       </c>
       <c r="N36" t="n">
-        <v>70.05385969465495</v>
+        <v>55.73636841782013</v>
       </c>
       <c r="O36" t="n">
         <v>109.5805446934421</v>
@@ -37545,13 +37545,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>69.50763306974679</v>
       </c>
       <c r="L38" t="n">
         <v>49.55444753054445</v>
       </c>
       <c r="M38" t="n">
-        <v>110.3883455298589</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="N38" t="n">
         <v>110.3883455298589</v>
@@ -37560,7 +37560,7 @@
         <v>84.53676668698523</v>
       </c>
       <c r="P38" t="n">
-        <v>82.22534166926452</v>
+        <v>21.18278690757393</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,10 +37627,10 @@
         <v>14.31749127683483</v>
       </c>
       <c r="L39" t="n">
-        <v>33.03068350430972</v>
+        <v>87.6826606163485</v>
       </c>
       <c r="M39" t="n">
-        <v>110.3883455298589</v>
+        <v>55.73636841782013</v>
       </c>
       <c r="N39" t="n">
         <v>110.3883455298589</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>44.45442151156026</v>
       </c>
       <c r="L41" t="n">
         <v>49.55444753054445</v>
@@ -37797,7 +37797,7 @@
         <v>84.53676668698523</v>
       </c>
       <c r="P41" t="n">
-        <v>65.63720841913415</v>
+        <v>21.18278690757393</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>87.6826606163485</v>
       </c>
       <c r="M42" t="n">
+        <v>38.34043433127307</v>
+      </c>
+      <c r="N42" t="n">
         <v>101.9232672218027</v>
-      </c>
-      <c r="N42" t="n">
-        <v>38.34043433127304</v>
       </c>
       <c r="O42" t="n">
         <v>101.9232672218027</v>
@@ -38022,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>49.55444753054445</v>
+        <v>94.00886904210471</v>
       </c>
       <c r="M44" t="n">
         <v>101.9232672218027</v>
@@ -38034,7 +38034,7 @@
         <v>84.53676668698523</v>
       </c>
       <c r="P44" t="n">
-        <v>65.63720841913415</v>
+        <v>21.18278690757393</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>14.31749127683483</v>
       </c>
       <c r="L45" t="n">
-        <v>87.6826606163485</v>
+        <v>24.09982772581887</v>
       </c>
       <c r="M45" t="n">
         <v>101.9232672218027</v>
@@ -38110,7 +38110,7 @@
         <v>101.9232672218027</v>
       </c>
       <c r="O45" t="n">
-        <v>38.34043433127304</v>
+        <v>101.9232672218027</v>
       </c>
       <c r="P45" t="n">
         <v>59.38783641220746</v>
